--- a/server-res/excel/Cfg_ItemAddition.xlsx
+++ b/server-res/excel/Cfg_ItemAddition.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -35,10 +31,6 @@
   </si>
   <si>
     <t>lev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attrib_change</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -72,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,6 +134,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -190,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,7 +220,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -434,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -457,10 +452,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -480,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -499,11 +494,11 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="2">
+        <v>20110001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>6</v>
@@ -526,10 +521,10 @@
         <v>20110001</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -544,15 +539,15 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>20110001</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -572,10 +567,10 @@
         <v>20110001</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -595,10 +590,10 @@
         <v>20110001</v>
       </c>
       <c r="B7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -613,148 +608,148 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="54" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>20110001</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>20111001</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>20111001</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>20111001</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="54" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>20111001</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="54" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
+        <v>20111001</v>
+      </c>
+      <c r="B12">
         <v>5</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>20111001</v>
-      </c>
-      <c r="B9">
+      <c r="C12" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>20112001</v>
+      </c>
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <v>20111001</v>
-      </c>
-      <c r="B10">
+      <c r="C13" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>20112001</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C14" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="54" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>20112001</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="54" x14ac:dyDescent="0.15">
+      <c r="A16" s="11">
+        <v>20112001</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="54" x14ac:dyDescent="0.15">
+      <c r="A17" s="12">
+        <v>20112001</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="13">
+        <v>20112001</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <v>20111001</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="54" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
-        <v>20111001</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="54" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
-        <v>20111001</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" spans="1:15" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="14">
         <v>20112001</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
-        <v>20112001</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="54" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
-        <v>20112001</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="54" x14ac:dyDescent="0.15">
-      <c r="A17" s="11">
-        <v>20112001</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="54" x14ac:dyDescent="0.15">
-      <c r="A18" s="12">
-        <v>20112001</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="13">
-        <v>20112001</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>11</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -768,29 +763,6 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
-    </row>
-    <row r="20" spans="1:15" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="14">
-        <v>20112001</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/server-res/excel/Cfg_ItemAddition.xlsx
+++ b/server-res/excel/Cfg_ItemAddition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,22 +42,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"attrib":"ATTRIB_HP_MAX","oplev":"0", "val":"100","desc":"血量上限+100"}]</t>
-  </si>
-  <si>
-    <t>[{"attrib":"ATTRIB_HP_MAX","oplev":"0", "val":"200","desc":"血量上限+200"}]</t>
+    <t>[{"attrib":"ATTRIB_HP_MAX","oplev":0, "val":100,"desc":"血量上限+100"}]</t>
+  </si>
+  <si>
+    <t>[{"attrib":"ATTRIB_HP_MAX","oplev":0, "val":100,"desc":"血量上限+100"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"attrib":"ATTRIB_HP_MAX","oplev":0, "val":200,"desc":"血量上限+200"}]</t>
   </si>
   <si>
     <t>[
-{"attrib":"ATTRIB_HP_MAX","oplev":"0", "val":"200","desc":"血量上限+200"},
-{"attrib":"ATTRIB_MAX_ATK","oplev":"0", "val":"100","desc":"攻击力上限+200"}
+{"attrib":"ATTRIB_HP_MAX","oplev":0, "val":200,"desc":"血量上限+200"},
+{"attrib":"ATTRIB_MAX_ATK","oplev":0, "val":100,"desc":"攻击力上限+200"}
 ]</t>
   </si>
   <si>
     <t>[
-{"attrib":"ATTRIB_HP_MAX","oplev":"0", "val":"200","desc":"血量上限+200"},
-{"attrib":"ATTRIB_MAX_ATK","oplev":"0", "val":"100","desc":"攻击力上限+200"},
-{"attrib":"ATTRIB_MAX_DEF","oplev":"0", "val":"100","desc":"防御力上限+200"},
+{"attrib":"ATTRIB_HP_MAX","oplev":0, "val":200,"desc":"血量上限+200"},
+{"attrib":"ATTRIB_MAX_ATK","oplev":0, "val":100,"desc":"攻击力上限+200"},
+{"attrib":"ATTRIB_MAX_DEF","oplev":0, "val":100,"desc":"防御力上限+200"},
 ]</t>
   </si>
 </sst>
@@ -431,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -501,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -524,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -547,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -570,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -593,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -627,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="54" x14ac:dyDescent="0.15">
@@ -638,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="54" x14ac:dyDescent="0.15">
@@ -649,7 +653,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="54" x14ac:dyDescent="0.15">
@@ -660,7 +664,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
@@ -682,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="54" x14ac:dyDescent="0.15">
@@ -693,7 +697,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="54" x14ac:dyDescent="0.15">
@@ -704,7 +708,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="54" x14ac:dyDescent="0.15">
@@ -715,7 +719,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="67.5" x14ac:dyDescent="0.15">
@@ -726,7 +730,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -749,7 +753,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
